--- a/Code/Results/Cases/Case_0_141/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_141/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01410004919499386</v>
+        <v>0.01441373773993604</v>
       </c>
       <c r="D2">
-        <v>0.01814552960643212</v>
+        <v>0.04580567640922517</v>
       </c>
       <c r="E2">
-        <v>0.1409160589173943</v>
+        <v>0.06496870325029391</v>
       </c>
       <c r="F2">
-        <v>1.657589401926899</v>
+        <v>1.47758319985725</v>
       </c>
       <c r="G2">
-        <v>0.0007799891909300305</v>
+        <v>0.00246675029531099</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.254168934581941</v>
+        <v>1.133028412353909</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.262416995097567</v>
+        <v>1.592004394650132</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.159451853123358</v>
+        <v>0.4553131149134231</v>
       </c>
       <c r="N2">
-        <v>0.7096460877221489</v>
+        <v>1.469867471075457</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01371394060749864</v>
+        <v>0.0142020115517667</v>
       </c>
       <c r="D3">
-        <v>0.01990102639607993</v>
+        <v>0.04650678353788162</v>
       </c>
       <c r="E3">
-        <v>0.1218560935227977</v>
+        <v>0.06050874881020718</v>
       </c>
       <c r="F3">
-        <v>1.484397714422201</v>
+        <v>1.445795482841334</v>
       </c>
       <c r="G3">
-        <v>0.0007882805223897322</v>
+        <v>0.002471879432849382</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.12452251464201</v>
+        <v>1.109565171040089</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.676100105587921</v>
+        <v>1.438226604960391</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9993335301383723</v>
+        <v>0.4144391994493049</v>
       </c>
       <c r="N3">
-        <v>0.7623343557357778</v>
+        <v>1.489657874149604</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01347536637767988</v>
+        <v>0.01407048987438841</v>
       </c>
       <c r="D4">
-        <v>0.02104549354350027</v>
+        <v>0.04695873728501532</v>
       </c>
       <c r="E4">
-        <v>0.1105009682214977</v>
+        <v>0.05782092484009027</v>
       </c>
       <c r="F4">
-        <v>1.382281785483755</v>
+        <v>1.427364385868913</v>
       </c>
       <c r="G4">
-        <v>0.0007934990890377042</v>
+        <v>0.00247519242152506</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.048169357729108</v>
+        <v>1.095994222341062</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.321207092258305</v>
+        <v>1.344468734700058</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.9027519262930781</v>
+        <v>0.3895773071537789</v>
       </c>
       <c r="N4">
-        <v>0.7963351785736421</v>
+        <v>1.502425090868535</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01337774151875237</v>
+        <v>0.01401651720777863</v>
       </c>
       <c r="D5">
-        <v>0.0215273647612122</v>
+        <v>0.04714828660392367</v>
       </c>
       <c r="E5">
-        <v>0.1059497468010449</v>
+        <v>0.0567381089546366</v>
       </c>
       <c r="F5">
-        <v>1.341620075490042</v>
+        <v>1.420125004416448</v>
       </c>
       <c r="G5">
-        <v>0.0007956595327534808</v>
+        <v>0.002476583794069935</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.017787007326604</v>
+        <v>1.090672653471117</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.177673576977156</v>
+        <v>1.306426183474059</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8637667722430962</v>
+        <v>0.3795040764754489</v>
       </c>
       <c r="N5">
-        <v>0.8105846609340865</v>
+        <v>1.507782254415943</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01336150599893315</v>
+        <v>0.01400753252353582</v>
       </c>
       <c r="D6">
-        <v>0.02160828077282329</v>
+        <v>0.04718008502018911</v>
       </c>
       <c r="E6">
-        <v>0.1051983025799785</v>
+        <v>0.05655905610478129</v>
       </c>
       <c r="F6">
-        <v>1.334922627507225</v>
+        <v>1.418939252182057</v>
       </c>
       <c r="G6">
-        <v>0.0007960203644895245</v>
+        <v>0.002476817329321394</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.012783913631154</v>
+        <v>1.089801575203737</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.153900265509037</v>
+        <v>1.300119127206358</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8573140920140929</v>
+        <v>0.3778349138669839</v>
       </c>
       <c r="N6">
-        <v>0.8129739863273535</v>
+        <v>1.50868112121838</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01347405143809155</v>
+        <v>0.01406976349723976</v>
       </c>
       <c r="D7">
-        <v>0.02105193105600733</v>
+        <v>0.04696127188530497</v>
       </c>
       <c r="E7">
-        <v>0.110439295062605</v>
+        <v>0.0578062713205334</v>
       </c>
       <c r="F7">
-        <v>1.381729695052968</v>
+        <v>1.427265656398518</v>
       </c>
       <c r="G7">
-        <v>0.0007935280863168351</v>
+        <v>0.002475211018883705</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.047756753301684</v>
+        <v>1.095921610642066</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.31926718948381</v>
+        <v>1.343955015938263</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.9022247290732253</v>
+        <v>0.3894412215542857</v>
       </c>
       <c r="N7">
-        <v>0.7965257837177546</v>
+        <v>1.502496714807503</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01396721174298676</v>
+        <v>0.01434105367398786</v>
       </c>
       <c r="D8">
-        <v>0.01873620690611943</v>
+        <v>0.0460429469779573</v>
       </c>
       <c r="E8">
-        <v>0.134264820226992</v>
+        <v>0.06342026661659972</v>
       </c>
       <c r="F8">
-        <v>1.596926209637957</v>
+        <v>1.466396140827641</v>
       </c>
       <c r="G8">
-        <v>0.0007828226384182626</v>
+        <v>0.002468484938114076</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.208738595069036</v>
+        <v>1.124764000755448</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.05907098454486</v>
+        <v>1.538843084454811</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.103843988672338</v>
+        <v>0.4411705078414556</v>
       </c>
       <c r="N8">
-        <v>0.727457272973222</v>
+        <v>1.4765631251956</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01492418564981079</v>
+        <v>0.01486075376038798</v>
       </c>
       <c r="D9">
-        <v>0.01478803545411722</v>
+        <v>0.04441356500788984</v>
       </c>
       <c r="E9">
-        <v>0.1843216135477306</v>
+        <v>0.07484189357784743</v>
       </c>
       <c r="F9">
-        <v>2.058024363393983</v>
+        <v>1.551841610189911</v>
       </c>
       <c r="G9">
-        <v>0.0007627552731209646</v>
+        <v>0.002456587205193674</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.554495896935336</v>
+        <v>1.188022109002816</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>5.560264076804174</v>
+        <v>1.926385209331841</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.51613371025978</v>
+        <v>0.54451971749981</v>
       </c>
       <c r="N9">
-        <v>0.6061618487993954</v>
+        <v>1.430612586094476</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01562475298258548</v>
+        <v>0.01523481248904801</v>
       </c>
       <c r="D10">
-        <v>0.01235401593689822</v>
+        <v>0.04332245137903357</v>
       </c>
       <c r="E10">
-        <v>0.2240462293273993</v>
+        <v>0.08350113513529323</v>
       </c>
       <c r="F10">
-        <v>2.429422819525769</v>
+        <v>1.620060158376887</v>
       </c>
       <c r="G10">
-        <v>0.0007484400058102781</v>
+        <v>0.002448624349091655</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.833610072161619</v>
+        <v>1.238682809170783</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.709616839236901</v>
+        <v>2.214570945234584</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.834381747982761</v>
+        <v>0.6216839780642545</v>
       </c>
       <c r="N10">
-        <v>0.5273343573531051</v>
+        <v>1.399867879237409</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01594410402515578</v>
+        <v>0.01540324411847749</v>
       </c>
       <c r="D11">
-        <v>0.01137693221085101</v>
+        <v>0.0428494172966527</v>
       </c>
       <c r="E11">
-        <v>0.2429998926286743</v>
+        <v>0.08750218806536481</v>
       </c>
       <c r="F11">
-        <v>2.607765460342165</v>
+        <v>1.652305406701231</v>
       </c>
       <c r="G11">
-        <v>0.000741985297568681</v>
+        <v>0.00244516887813861</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.967799814504403</v>
+        <v>1.262660963234865</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7.246668147028231</v>
+        <v>2.346467888578218</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.983810246839326</v>
+        <v>0.6570717257745429</v>
       </c>
       <c r="N11">
-        <v>0.4941462976983146</v>
+        <v>1.386541471194644</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01606526212759363</v>
+        <v>0.01546677129669405</v>
       </c>
       <c r="D12">
-        <v>0.01102860552835239</v>
+        <v>0.04267367427107871</v>
       </c>
       <c r="E12">
-        <v>0.2503279359372144</v>
+        <v>0.08902646526360058</v>
       </c>
       <c r="F12">
-        <v>2.676874199396451</v>
+        <v>1.664692406895767</v>
       </c>
       <c r="G12">
-        <v>0.0007395459036567033</v>
+        <v>0.002443884225355515</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.019824722046749</v>
+        <v>1.271876668749229</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>7.452477406416051</v>
+        <v>2.39653173981759</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.041193323053406</v>
+        <v>0.6705143168051535</v>
       </c>
       <c r="N12">
-        <v>0.4820064279103917</v>
+        <v>1.381590450238619</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0160391560067481</v>
+        <v>0.01545310097477781</v>
       </c>
       <c r="D13">
-        <v>0.01110260723393885</v>
+        <v>0.04271137263016733</v>
       </c>
       <c r="E13">
-        <v>0.2487425903006297</v>
+        <v>0.08869777307162252</v>
       </c>
       <c r="F13">
-        <v>2.661916466697875</v>
+        <v>1.662016764520502</v>
       </c>
       <c r="G13">
-        <v>0.0007400711135712391</v>
+        <v>0.002444159839199767</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.008563394794294</v>
+        <v>1.269885840260912</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7.408037254761609</v>
+        <v>2.385744337203448</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.028797124181324</v>
+        <v>0.6676173295850703</v>
       </c>
       <c r="N13">
-        <v>0.484601177173019</v>
+        <v>1.382652489138152</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01595406635268404</v>
+        <v>0.01540847566410619</v>
       </c>
       <c r="D14">
-        <v>0.01134782198619888</v>
+        <v>0.04283489079381653</v>
       </c>
       <c r="E14">
-        <v>0.2435996056840679</v>
+        <v>0.08762740607318165</v>
       </c>
       <c r="F14">
-        <v>2.613418129700307</v>
+        <v>1.653320944731888</v>
       </c>
       <c r="G14">
-        <v>0.0007417845308317185</v>
+        <v>0.002445062711618846</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.972054606414687</v>
+        <v>1.263416415859638</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>7.263548825742873</v>
+        <v>2.350584306506278</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.988514396727425</v>
+        <v>0.6581768079841055</v>
       </c>
       <c r="N14">
-        <v>0.4931386976238912</v>
+        <v>1.386132232490404</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01590198051159319</v>
+        <v>0.01538110810364302</v>
       </c>
       <c r="D15">
-        <v>0.01150094229366694</v>
+        <v>0.04291099097165763</v>
       </c>
       <c r="E15">
-        <v>0.2404697723818501</v>
+        <v>0.08697297678360627</v>
       </c>
       <c r="F15">
-        <v>2.583923705317403</v>
+        <v>1.64801754246659</v>
       </c>
       <c r="G15">
-        <v>0.000742834573088499</v>
+        <v>0.002445618849910964</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.949855050598345</v>
+        <v>1.259471427326147</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>7.175375959022119</v>
+        <v>2.329063123906678</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.963948081354729</v>
+        <v>0.6523997176469152</v>
       </c>
       <c r="N15">
-        <v>0.4984252847459487</v>
+        <v>1.388276116624414</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01560390644461052</v>
+        <v>0.01522376980637574</v>
       </c>
       <c r="D16">
-        <v>0.01242073107181696</v>
+        <v>0.04335383718042429</v>
       </c>
       <c r="E16">
-        <v>0.2228272767832919</v>
+        <v>0.08324092516399872</v>
       </c>
       <c r="F16">
-        <v>2.417975099962163</v>
+        <v>1.61797742868896</v>
       </c>
       <c r="G16">
-        <v>0.000748862711780786</v>
+        <v>0.002448853518524293</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.824999879952543</v>
+        <v>1.237134680344724</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6.674837767555175</v>
+        <v>2.205967461852254</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.824720475578786</v>
+        <v>0.6193771312889282</v>
       </c>
       <c r="N16">
-        <v>0.5295606083720088</v>
+        <v>1.400752110363197</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01542130035224787</v>
+        <v>0.01512680089311402</v>
       </c>
       <c r="D17">
-        <v>0.01302027718094401</v>
+        <v>0.04363150370184776</v>
       </c>
       <c r="E17">
-        <v>0.2122460845431107</v>
+        <v>0.08096747645513602</v>
       </c>
       <c r="F17">
-        <v>2.318725874070495</v>
+        <v>1.599860772629995</v>
       </c>
       <c r="G17">
-        <v>0.0007525732095678972</v>
+        <v>0.002450880525130761</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.750369202942693</v>
+        <v>1.223671758024196</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6.371677129196144</v>
+        <v>2.13065875012677</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.740586890884089</v>
+        <v>0.5991926233202207</v>
       </c>
       <c r="N17">
-        <v>0.5493743151059718</v>
+        <v>1.408575043232855</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01531632255666437</v>
+        <v>0.01507086446238404</v>
       </c>
       <c r="D18">
-        <v>0.01337716747937101</v>
+        <v>0.04379340310786617</v>
       </c>
       <c r="E18">
-        <v>0.2062415339670309</v>
+        <v>0.07966566131281638</v>
       </c>
       <c r="F18">
-        <v>2.262509203266447</v>
+        <v>1.589554530416933</v>
       </c>
       <c r="G18">
-        <v>0.0007547130187659512</v>
+        <v>0.002452062120473346</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.708111493713815</v>
+        <v>1.216015899483182</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>6.198617349155711</v>
+        <v>2.087418309798522</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.692625026121306</v>
+        <v>0.5876098254698121</v>
       </c>
       <c r="N18">
-        <v>0.5610190785355442</v>
+        <v>1.413136629545793</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01528078438325764</v>
+        <v>0.01505189761410364</v>
       </c>
       <c r="D19">
-        <v>0.01349999157063664</v>
+        <v>0.04384859516148865</v>
       </c>
       <c r="E19">
-        <v>0.2042218217644063</v>
+        <v>0.07922587946215742</v>
       </c>
       <c r="F19">
-        <v>2.243618121321958</v>
+        <v>1.586084526413032</v>
       </c>
       <c r="G19">
-        <v>0.0007554385839116517</v>
+        <v>0.002452464891539311</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.693913617887461</v>
+        <v>1.213438763443548</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.140236115953087</v>
+        <v>2.072790674764178</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.676456126124677</v>
+        <v>0.5836926617947569</v>
       </c>
       <c r="N19">
-        <v>0.5650032377029035</v>
+        <v>1.414691743090852</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01544073280851421</v>
+        <v>0.01513714025568902</v>
       </c>
       <c r="D20">
-        <v>0.01295518783104121</v>
+        <v>0.04360171843726057</v>
       </c>
       <c r="E20">
-        <v>0.2133638776714335</v>
+        <v>0.08120888550651273</v>
       </c>
       <c r="F20">
-        <v>2.329199679828946</v>
+        <v>1.601777510070704</v>
       </c>
       <c r="G20">
-        <v>0.0007521776612566367</v>
+        <v>0.002450663121520203</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.758243474006377</v>
+        <v>1.225095825061771</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6.403810799323026</v>
+        <v>2.138667697769449</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.749497727723323</v>
+        <v>0.6013385181374531</v>
       </c>
       <c r="N20">
-        <v>0.5472391033018695</v>
+        <v>1.407735853492252</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01597905187024651</v>
+        <v>0.01542159014307742</v>
       </c>
       <c r="D21">
-        <v>0.011275182080146</v>
+        <v>0.04279851840014715</v>
       </c>
       <c r="E21">
-        <v>0.2451059273146754</v>
+        <v>0.08794154796454023</v>
       </c>
       <c r="F21">
-        <v>2.627618596888709</v>
+        <v>1.655870312816774</v>
       </c>
       <c r="G21">
-        <v>0.0007412811559959209</v>
+        <v>0.002444796869614441</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.982743782981416</v>
+        <v>1.265312946709116</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>7.305918918950624</v>
+        <v>2.360908456353229</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.000323643142863</v>
+        <v>0.6609485696767052</v>
       </c>
       <c r="N21">
-        <v>0.4906190320656023</v>
+        <v>1.385107553833315</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01633228373929896</v>
+        <v>0.0156060103319291</v>
       </c>
       <c r="D22">
-        <v>0.01030530424188036</v>
+        <v>0.04229332458296753</v>
       </c>
       <c r="E22">
-        <v>0.2667434063399483</v>
+        <v>0.09239527812926696</v>
       </c>
       <c r="F22">
-        <v>2.831957071004183</v>
+        <v>1.692252417405797</v>
       </c>
       <c r="G22">
-        <v>0.000734186074799872</v>
+        <v>0.002441101940470869</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.136620349478193</v>
+        <v>1.29238888935356</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>7.909946514571686</v>
+        <v>2.50684071635942</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.168976662879828</v>
+        <v>0.7001525743595636</v>
       </c>
       <c r="N22">
-        <v>0.4561328892332313</v>
+        <v>1.370874987898446</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01614357541384592</v>
+        <v>0.01550771939215778</v>
       </c>
       <c r="D23">
-        <v>0.01081010550769967</v>
+        <v>0.0425611388792877</v>
       </c>
       <c r="E23">
-        <v>0.2551045954137194</v>
+        <v>0.09001325183675135</v>
       </c>
       <c r="F23">
-        <v>2.721963679319828</v>
+        <v>1.672739718776114</v>
       </c>
       <c r="G23">
-        <v>0.0007379716852854094</v>
+        <v>0.002443061319925856</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.053775422826263</v>
+        <v>1.277864962176452</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>7.586096844656254</v>
+        <v>2.428890453517795</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.078483634623424</v>
+        <v>0.6792058750116325</v>
       </c>
       <c r="N23">
-        <v>0.4742921697480114</v>
+        <v>1.378420082645164</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0154319473893807</v>
+        <v>0.01513246641317778</v>
       </c>
       <c r="D24">
-        <v>0.01298457693248345</v>
+        <v>0.04361517730154496</v>
       </c>
       <c r="E24">
-        <v>0.2128582799563503</v>
+        <v>0.08109972823244505</v>
       </c>
       <c r="F24">
-        <v>2.324461862875864</v>
+        <v>1.600910612896968</v>
       </c>
       <c r="G24">
-        <v>0.0007523564678595458</v>
+        <v>0.002450761358918249</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.754681508920385</v>
+        <v>1.224451742353423</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>6.389279361033687</v>
+        <v>2.135046679716936</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.745467878074948</v>
+        <v>0.6003682920581497</v>
       </c>
       <c r="N24">
-        <v>0.5482036458713893</v>
+        <v>1.40811505162764</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01466606838847184</v>
+        <v>0.01472150609872713</v>
       </c>
       <c r="D25">
-        <v>0.01578275809566243</v>
+        <v>0.04483585136564372</v>
       </c>
       <c r="E25">
-        <v>0.1703355651397871</v>
+        <v>0.07170620205537404</v>
       </c>
       <c r="F25">
-        <v>1.9282560984486</v>
+        <v>1.527780308802789</v>
       </c>
       <c r="G25">
-        <v>0.0007680980132219445</v>
+        <v>0.00245966849174437</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.457092529990845</v>
+        <v>1.17018159740968</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>5.147248582287375</v>
+        <v>1.820951110020474</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.4023061556626</v>
+        <v>0.5163495234981781</v>
       </c>
       <c r="N25">
-        <v>0.6373020617408223</v>
+        <v>1.442515762178108</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_141/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_141/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01441373773993604</v>
+        <v>0.01410004919499386</v>
       </c>
       <c r="D2">
-        <v>0.04580567640922517</v>
+        <v>0.01814552960633975</v>
       </c>
       <c r="E2">
-        <v>0.06496870325029391</v>
+        <v>0.1409160589173872</v>
       </c>
       <c r="F2">
-        <v>1.47758319985725</v>
+        <v>1.657589401926899</v>
       </c>
       <c r="G2">
-        <v>0.00246675029531099</v>
+        <v>0.0007799891909292736</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.133028412353909</v>
+        <v>1.254168934581941</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.592004394650132</v>
+        <v>4.262416995097624</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4553131149134231</v>
+        <v>1.159451853123358</v>
       </c>
       <c r="N2">
-        <v>1.469867471075457</v>
+        <v>0.7096460877221418</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0142020115517667</v>
+        <v>0.01371394060761588</v>
       </c>
       <c r="D3">
-        <v>0.04650678353788162</v>
+        <v>0.01990102639619273</v>
       </c>
       <c r="E3">
-        <v>0.06050874881020718</v>
+        <v>0.1218560935227693</v>
       </c>
       <c r="F3">
-        <v>1.445795482841334</v>
+        <v>1.484397714422215</v>
       </c>
       <c r="G3">
-        <v>0.002471879432849382</v>
+        <v>0.000788280522345616</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.109565171040089</v>
+        <v>1.12452251464201</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.438226604960391</v>
+        <v>3.676100105587921</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4144391994493049</v>
+        <v>0.9993335301383652</v>
       </c>
       <c r="N3">
-        <v>1.489657874149604</v>
+        <v>0.7623343557357707</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01407048987438841</v>
+        <v>0.01347536637767988</v>
       </c>
       <c r="D4">
-        <v>0.04695873728501532</v>
+        <v>0.02104549354349849</v>
       </c>
       <c r="E4">
-        <v>0.05782092484009027</v>
+        <v>0.1105009682214728</v>
       </c>
       <c r="F4">
-        <v>1.427364385868913</v>
+        <v>1.382281785483741</v>
       </c>
       <c r="G4">
-        <v>0.00247519242152506</v>
+        <v>0.0007934990890242423</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.095994222341062</v>
+        <v>1.048169357729108</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.344468734700058</v>
+        <v>3.321207092258248</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3895773071537789</v>
+        <v>0.9027519262930639</v>
       </c>
       <c r="N4">
-        <v>1.502425090868535</v>
+        <v>0.796335178573667</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01401651720777863</v>
+        <v>0.01337774151863513</v>
       </c>
       <c r="D5">
-        <v>0.04714828660392367</v>
+        <v>0.0215273647610994</v>
       </c>
       <c r="E5">
-        <v>0.0567381089546366</v>
+        <v>0.1059497468010626</v>
       </c>
       <c r="F5">
-        <v>1.420125004416448</v>
+        <v>1.341620075490013</v>
       </c>
       <c r="G5">
-        <v>0.002476583794069935</v>
+        <v>0.0007956595327252834</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.090672653471117</v>
+        <v>1.017787007326589</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.306426183474059</v>
+        <v>3.177673576977327</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3795040764754489</v>
+        <v>0.8637667722430962</v>
       </c>
       <c r="N5">
-        <v>1.507782254415943</v>
+        <v>0.8105846609340936</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01400753252353582</v>
+        <v>0.01336150599876973</v>
       </c>
       <c r="D6">
-        <v>0.04718008502018911</v>
+        <v>0.0216082807730249</v>
       </c>
       <c r="E6">
-        <v>0.05655905610478129</v>
+        <v>0.1051983025799892</v>
       </c>
       <c r="F6">
-        <v>1.418939252182057</v>
+        <v>1.33492262750724</v>
       </c>
       <c r="G6">
-        <v>0.002476817329321394</v>
+        <v>0.0007960203644079165</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.089801575203737</v>
+        <v>1.012783913631154</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.300119127206358</v>
+        <v>3.153900265508923</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3778349138669839</v>
+        <v>0.8573140920140858</v>
       </c>
       <c r="N6">
-        <v>1.50868112121838</v>
+        <v>0.8129739863274068</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01406976349723976</v>
+        <v>0.01347405143815195</v>
       </c>
       <c r="D7">
-        <v>0.04696127188530497</v>
+        <v>0.02105193105601622</v>
       </c>
       <c r="E7">
-        <v>0.0578062713205334</v>
+        <v>0.1104392950626227</v>
       </c>
       <c r="F7">
-        <v>1.427265656398518</v>
+        <v>1.381729695052954</v>
       </c>
       <c r="G7">
-        <v>0.002475211018883705</v>
+        <v>0.0007935280863607123</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.095921610642066</v>
+        <v>1.047756753301655</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.343955015938263</v>
+        <v>3.319267189483753</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3894412215542857</v>
+        <v>0.9022247290732537</v>
       </c>
       <c r="N7">
-        <v>1.502496714807503</v>
+        <v>0.796525783717744</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01434105367398786</v>
+        <v>0.01396721174269544</v>
       </c>
       <c r="D8">
-        <v>0.0460429469779573</v>
+        <v>0.01873620690601108</v>
       </c>
       <c r="E8">
-        <v>0.06342026661659972</v>
+        <v>0.1342648202269743</v>
       </c>
       <c r="F8">
-        <v>1.466396140827641</v>
+        <v>1.596926209637957</v>
       </c>
       <c r="G8">
-        <v>0.002468484938114076</v>
+        <v>0.0007828226384365032</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.124764000755448</v>
+        <v>1.208738595069022</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.538843084454811</v>
+        <v>4.059070984544803</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4411705078414556</v>
+        <v>1.103843988672324</v>
       </c>
       <c r="N8">
-        <v>1.4765631251956</v>
+        <v>0.7274572729731759</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01486075376038798</v>
+        <v>0.0149241856496225</v>
       </c>
       <c r="D9">
-        <v>0.04441356500788984</v>
+        <v>0.01478803545400531</v>
       </c>
       <c r="E9">
-        <v>0.07484189357784743</v>
+        <v>0.1843216135477235</v>
       </c>
       <c r="F9">
-        <v>1.551841610189911</v>
+        <v>2.058024363393969</v>
       </c>
       <c r="G9">
-        <v>0.002456587205193674</v>
+        <v>0.0007627552731773639</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.188022109002816</v>
+        <v>1.554495896935322</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.926385209331841</v>
+        <v>5.56026407680406</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.54451971749981</v>
+        <v>1.516133710259808</v>
       </c>
       <c r="N9">
-        <v>1.430612586094476</v>
+        <v>0.6061618487993314</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01523481248904801</v>
+        <v>0.01562475298280575</v>
       </c>
       <c r="D10">
-        <v>0.04332245137903357</v>
+        <v>0.01235401593689289</v>
       </c>
       <c r="E10">
-        <v>0.08350113513529323</v>
+        <v>0.2240462293274064</v>
       </c>
       <c r="F10">
-        <v>1.620060158376887</v>
+        <v>2.429422819525811</v>
       </c>
       <c r="G10">
-        <v>0.002448624349091655</v>
+        <v>0.0007484400057530366</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.238682809170783</v>
+        <v>1.833610072161633</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.214570945234584</v>
+        <v>6.709616839236958</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6216839780642545</v>
+        <v>1.834381747982761</v>
       </c>
       <c r="N10">
-        <v>1.399867879237409</v>
+        <v>0.5273343573531051</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01540324411847749</v>
+        <v>0.01594410402560698</v>
       </c>
       <c r="D11">
-        <v>0.0428494172966527</v>
+        <v>0.0113769322109718</v>
       </c>
       <c r="E11">
-        <v>0.08750218806536481</v>
+        <v>0.2429998926287311</v>
       </c>
       <c r="F11">
-        <v>1.652305406701231</v>
+        <v>2.607765460342165</v>
       </c>
       <c r="G11">
-        <v>0.00244516887813861</v>
+        <v>0.0007419852976250613</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.262660963234865</v>
+        <v>1.967799814504389</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.346467888578218</v>
+        <v>7.246668147028174</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6570717257745429</v>
+        <v>1.983810246839326</v>
       </c>
       <c r="N11">
-        <v>1.386541471194644</v>
+        <v>0.4941462976983146</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01546677129669405</v>
+        <v>0.01606526212760784</v>
       </c>
       <c r="D12">
-        <v>0.04267367427107871</v>
+        <v>0.01102860552848206</v>
       </c>
       <c r="E12">
-        <v>0.08902646526360058</v>
+        <v>0.2503279359372499</v>
       </c>
       <c r="F12">
-        <v>1.664692406895767</v>
+        <v>2.676874199396423</v>
       </c>
       <c r="G12">
-        <v>0.002443884225355515</v>
+        <v>0.0007395459036010356</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.271876668749229</v>
+        <v>2.019824722046749</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.39653173981759</v>
+        <v>7.452477406415937</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6705143168051535</v>
+        <v>2.041193323053392</v>
       </c>
       <c r="N12">
-        <v>1.381590450238619</v>
+        <v>0.482006427910413</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01545310097477781</v>
+        <v>0.0160391560062898</v>
       </c>
       <c r="D13">
-        <v>0.04271137263016733</v>
+        <v>0.0111026072337026</v>
       </c>
       <c r="E13">
-        <v>0.08869777307162252</v>
+        <v>0.2487425903006226</v>
       </c>
       <c r="F13">
-        <v>1.662016764520502</v>
+        <v>2.661916466697875</v>
       </c>
       <c r="G13">
-        <v>0.002444159839199767</v>
+        <v>0.0007400711135144507</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.269885840260912</v>
+        <v>2.00856339479428</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.385744337203448</v>
+        <v>7.408037254761553</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6676173295850703</v>
+        <v>2.028797124181324</v>
       </c>
       <c r="N13">
-        <v>1.382652489138152</v>
+        <v>0.4846011771729479</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01540847566410619</v>
+        <v>0.01595406635199836</v>
       </c>
       <c r="D14">
-        <v>0.04283489079381653</v>
+        <v>0.01134782198630191</v>
       </c>
       <c r="E14">
-        <v>0.08762740607318165</v>
+        <v>0.2435996056840892</v>
       </c>
       <c r="F14">
-        <v>1.653320944731888</v>
+        <v>2.613418129700278</v>
       </c>
       <c r="G14">
-        <v>0.002445062711618846</v>
+        <v>0.0007417845308878187</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.263416415859638</v>
+        <v>1.972054606414673</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.350584306506278</v>
+        <v>7.263548825743101</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6581768079841055</v>
+        <v>1.988514396727453</v>
       </c>
       <c r="N14">
-        <v>1.386132232490404</v>
+        <v>0.493138697623877</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01538110810364302</v>
+        <v>0.01590198051158609</v>
       </c>
       <c r="D15">
-        <v>0.04291099097165763</v>
+        <v>0.01150094229354437</v>
       </c>
       <c r="E15">
-        <v>0.08697297678360627</v>
+        <v>0.240469772381843</v>
       </c>
       <c r="F15">
-        <v>1.64801754246659</v>
+        <v>2.583923705317432</v>
       </c>
       <c r="G15">
-        <v>0.002445618849910964</v>
+        <v>0.0007428345730879306</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.259471427326147</v>
+        <v>1.949855050598345</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.329063123906678</v>
+        <v>7.175375959022176</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6523997176469152</v>
+        <v>1.963948081354729</v>
       </c>
       <c r="N15">
-        <v>1.388276116624414</v>
+        <v>0.4984252847459487</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01522376980637574</v>
+        <v>0.01560390644483078</v>
       </c>
       <c r="D16">
-        <v>0.04335383718042429</v>
+        <v>0.01242073107169794</v>
       </c>
       <c r="E16">
-        <v>0.08324092516399872</v>
+        <v>0.2228272767833275</v>
       </c>
       <c r="F16">
-        <v>1.61797742868896</v>
+        <v>2.417975099962135</v>
       </c>
       <c r="G16">
-        <v>0.002448853518524293</v>
+        <v>0.0007488627117790908</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.237134680344724</v>
+        <v>1.824999879952543</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.205967461852254</v>
+        <v>6.674837767555175</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6193771312889282</v>
+        <v>1.8247204755788</v>
       </c>
       <c r="N16">
-        <v>1.400752110363197</v>
+        <v>0.5295606083720656</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01512680089311402</v>
+        <v>0.01542130035246103</v>
       </c>
       <c r="D17">
-        <v>0.04363150370184776</v>
+        <v>0.01302027718093512</v>
       </c>
       <c r="E17">
-        <v>0.08096747645513602</v>
+        <v>0.2122460845430822</v>
       </c>
       <c r="F17">
-        <v>1.599860772629995</v>
+        <v>2.318725874070523</v>
       </c>
       <c r="G17">
-        <v>0.002450880525130761</v>
+        <v>0.0007525732096220486</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.223671758024196</v>
+        <v>1.750369202942693</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.13065875012677</v>
+        <v>6.371677129196144</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5991926233202207</v>
+        <v>1.740586890884103</v>
       </c>
       <c r="N17">
-        <v>1.408575043232855</v>
+        <v>0.5493743151059505</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01507086446238404</v>
+        <v>0.01531632255687398</v>
       </c>
       <c r="D18">
-        <v>0.04379340310786617</v>
+        <v>0.01337716747925732</v>
       </c>
       <c r="E18">
-        <v>0.07966566131281638</v>
+        <v>0.2062415339669954</v>
       </c>
       <c r="F18">
-        <v>1.589554530416933</v>
+        <v>2.262509203266433</v>
       </c>
       <c r="G18">
-        <v>0.002452062120473346</v>
+        <v>0.0007547130188180145</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.216015899483182</v>
+        <v>1.708111493713815</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.087418309798522</v>
+        <v>6.198617349155711</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5876098254698121</v>
+        <v>1.692625026121306</v>
       </c>
       <c r="N18">
-        <v>1.413136629545793</v>
+        <v>0.56101907853553</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01505189761410364</v>
+        <v>0.01528078438392555</v>
       </c>
       <c r="D19">
-        <v>0.04384859516148865</v>
+        <v>0.01349999157065085</v>
       </c>
       <c r="E19">
-        <v>0.07922587946215742</v>
+        <v>0.2042218217643992</v>
       </c>
       <c r="F19">
-        <v>1.586084526413032</v>
+        <v>2.24361812132193</v>
       </c>
       <c r="G19">
-        <v>0.002452464891539311</v>
+        <v>0.0007554385839105682</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.213438763443548</v>
+        <v>1.693913617887461</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.072790674764178</v>
+        <v>6.140236115953144</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5836926617947569</v>
+        <v>1.676456126124663</v>
       </c>
       <c r="N19">
-        <v>1.414691743090852</v>
+        <v>0.5650032377029106</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01513714025568902</v>
+        <v>0.01544073280827973</v>
       </c>
       <c r="D20">
-        <v>0.04360171843726057</v>
+        <v>0.0129551878309222</v>
       </c>
       <c r="E20">
-        <v>0.08120888550651273</v>
+        <v>0.2133638776714193</v>
       </c>
       <c r="F20">
-        <v>1.601777510070704</v>
+        <v>2.32919967982896</v>
       </c>
       <c r="G20">
-        <v>0.002450663121520203</v>
+        <v>0.0007521776612534506</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.225095825061771</v>
+        <v>1.758243474006363</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.138667697769449</v>
+        <v>6.403810799323026</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6013385181374531</v>
+        <v>1.749497727723337</v>
       </c>
       <c r="N20">
-        <v>1.407735853492252</v>
+        <v>0.5472391033018553</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01542159014307742</v>
+        <v>0.01597905187002269</v>
       </c>
       <c r="D21">
-        <v>0.04279851840014715</v>
+        <v>0.01127518208004119</v>
       </c>
       <c r="E21">
-        <v>0.08794154796454023</v>
+        <v>0.2451059273146328</v>
       </c>
       <c r="F21">
-        <v>1.655870312816774</v>
+        <v>2.627618596888681</v>
       </c>
       <c r="G21">
-        <v>0.002444796869614441</v>
+        <v>0.0007412811559971399</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.265312946709116</v>
+        <v>1.982743782981387</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.360908456353229</v>
+        <v>7.305918918950738</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6609485696767052</v>
+        <v>2.000323643142849</v>
       </c>
       <c r="N21">
-        <v>1.385107553833315</v>
+        <v>0.4906190320656023</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0156060103319291</v>
+        <v>0.01633228373931672</v>
       </c>
       <c r="D22">
-        <v>0.04229332458296753</v>
+        <v>0.01030530424164411</v>
       </c>
       <c r="E22">
-        <v>0.09239527812926696</v>
+        <v>0.266743406339927</v>
       </c>
       <c r="F22">
-        <v>1.692252417405797</v>
+        <v>2.831957071004183</v>
       </c>
       <c r="G22">
-        <v>0.002441101940470869</v>
+        <v>0.000734186074738304</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.29238888935356</v>
+        <v>2.136620349478193</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.50684071635942</v>
+        <v>7.9099465145718</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7001525743595636</v>
+        <v>2.168976662879857</v>
       </c>
       <c r="N22">
-        <v>1.370874987898446</v>
+        <v>0.4561328892332313</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01550771939215778</v>
+        <v>0.0161435754131567</v>
       </c>
       <c r="D23">
-        <v>0.0425611388792877</v>
+        <v>0.01081010550770323</v>
       </c>
       <c r="E23">
-        <v>0.09001325183675135</v>
+        <v>0.2551045954136981</v>
       </c>
       <c r="F23">
-        <v>1.672739718776114</v>
+        <v>2.721963679319828</v>
       </c>
       <c r="G23">
-        <v>0.002443061319925856</v>
+        <v>0.0007379716853438625</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.277864962176452</v>
+        <v>2.053775422826263</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.428890453517795</v>
+        <v>7.586096844656254</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6792058750116325</v>
+        <v>2.078483634623424</v>
       </c>
       <c r="N23">
-        <v>1.378420082645164</v>
+        <v>0.4742921697480043</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01513246641317778</v>
+        <v>0.01543194738916398</v>
       </c>
       <c r="D24">
-        <v>0.04361517730154496</v>
+        <v>0.01298457693247634</v>
       </c>
       <c r="E24">
-        <v>0.08109972823244505</v>
+        <v>0.2128582799563219</v>
       </c>
       <c r="F24">
-        <v>1.600910612896968</v>
+        <v>2.324461862875836</v>
       </c>
       <c r="G24">
-        <v>0.002450761358918249</v>
+        <v>0.0007523564678602303</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.224451742353423</v>
+        <v>1.754681508920385</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.135046679716936</v>
+        <v>6.389279361033516</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6003682920581497</v>
+        <v>1.745467878074962</v>
       </c>
       <c r="N24">
-        <v>1.40811505162764</v>
+        <v>0.5482036458713679</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01472150609872713</v>
+        <v>0.01466606838847184</v>
       </c>
       <c r="D25">
-        <v>0.04483585136564372</v>
+        <v>0.01578275809566421</v>
       </c>
       <c r="E25">
-        <v>0.07170620205537404</v>
+        <v>0.1703355651398155</v>
       </c>
       <c r="F25">
-        <v>1.527780308802789</v>
+        <v>1.928256098448614</v>
       </c>
       <c r="G25">
-        <v>0.00245966849174437</v>
+        <v>0.0007680980132148685</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.17018159740968</v>
+        <v>1.457092529990859</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.820951110020474</v>
+        <v>5.147248582287318</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5163495234981781</v>
+        <v>1.4023061556626</v>
       </c>
       <c r="N25">
-        <v>1.442515762178108</v>
+        <v>0.6373020617408223</v>
       </c>
       <c r="O25">
         <v>0</v>
